--- a/src/main/resources/static/excel/基础资料-颜色.xlsx
+++ b/src/main/resources/static/excel/基础资料-颜色.xlsx
@@ -14,7 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+  <si>
+    <t>图片导入暂不支持嵌入式图片导入
+代码列必填，重复会覆盖</t>
+  </si>
   <si>
     <t>图片</t>
   </si>
@@ -567,7 +571,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,9 +719,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1050,119 +1060,142 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="9.13888888888889" customWidth="1"/>
     <col min="10" max="10" width="16.4444444444444"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" ht="29" customHeight="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
+      <c r="A2" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4401111</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="b">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4">
-        <v>43249.3881944444</v>
-      </c>
-      <c r="K2" s="2" t="b">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4401111</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6">
+        <v>43249.3881944444</v>
+      </c>
+      <c r="K3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/static/excel/基础资料-颜色.xlsx
+++ b/src/main/resources/static/excel/基础资料-颜色.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
-  <si>
-    <t>图片导入暂不支持嵌入式图片导入
-代码列必填，重复会覆盖</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>图片</t>
   </si>
@@ -719,15 +715,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1060,142 +1050,119 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9.13888888888889" customWidth="1"/>
     <col min="10" max="10" width="16.4444444444444"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:16">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4401111</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
+      <c r="H2" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="J2" s="4">
+        <v>43249.3881944444</v>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4401111</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="6">
-        <v>43249.3881944444</v>
-      </c>
-      <c r="K3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
